--- a/dataanalysis/data/predictions/1000/09290941_0942.xlsx
+++ b/dataanalysis/data/predictions/1000/09290941_0942.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-29</t>
   </si>
   <si>
@@ -326,9 +329,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -686,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,19 +795,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>8.539999999999999</v>
@@ -825,7 +828,7 @@
         <v>235679.72</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2">
         <v>17</v>
@@ -867,10 +870,25 @@
         <v>0.19</v>
       </c>
       <c r="X2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="Y2">
+        <v>8.75</v>
+      </c>
+      <c r="Z2">
+        <v>91.98</v>
+      </c>
+      <c r="AA2">
+        <v>9.67</v>
       </c>
       <c r="AC2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -878,22 +896,25 @@
       <c r="AG2">
         <v>-1.408384084701538</v>
       </c>
-      <c r="AH2" t="s">
-        <v>104</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300111</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.43</v>
@@ -911,7 +932,7 @@
         <v>51752.79</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -953,10 +974,25 @@
         <v>0.1</v>
       </c>
       <c r="X3" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>8.380000000000001</v>
       </c>
       <c r="AC3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -964,22 +1000,25 @@
       <c r="AG3">
         <v>4.861571311950684</v>
       </c>
-      <c r="AH3" t="s">
-        <v>104</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300115</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1.49</v>
@@ -997,7 +1036,7 @@
         <v>111263.94</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1039,10 +1078,25 @@
         <v>-0.12</v>
       </c>
       <c r="X4" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Y4">
+        <v>0.53</v>
+      </c>
+      <c r="Z4">
+        <v>42.52</v>
+      </c>
+      <c r="AA4">
+        <v>11.63</v>
       </c>
       <c r="AC4" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1050,22 +1104,25 @@
       <c r="AG4">
         <v>3.486647605895996</v>
       </c>
-      <c r="AH4" t="s">
-        <v>104</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300207</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>5.7</v>
@@ -1083,7 +1140,7 @@
         <v>94914.02</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5">
         <v>17</v>
@@ -1125,10 +1182,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X5" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Y5">
+        <v>-2.17</v>
+      </c>
+      <c r="Z5">
+        <v>35.43</v>
+      </c>
+      <c r="AA5">
+        <v>-1.01</v>
       </c>
       <c r="AC5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1136,22 +1208,25 @@
       <c r="AG5">
         <v>2.031949043273926</v>
       </c>
-      <c r="AH5" t="s">
-        <v>104</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300236</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1169,7 +1244,7 @@
         <v>12999.71</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1211,10 +1286,25 @@
         <v>-0.04</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Y6">
+        <v>0.62</v>
+      </c>
+      <c r="Z6">
+        <v>63.33</v>
+      </c>
+      <c r="AA6">
+        <v>1.17</v>
       </c>
       <c r="AC6" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1222,22 +1312,25 @@
       <c r="AG6">
         <v>3.761438608169556</v>
       </c>
-      <c r="AH6" t="s">
-        <v>104</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300250</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>17.95</v>
@@ -1255,7 +1348,7 @@
         <v>93006.00999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1297,10 +1390,25 @@
         <v>3.02</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y7">
+        <v>3.03</v>
+      </c>
+      <c r="Z7">
+        <v>28.2</v>
+      </c>
+      <c r="AA7">
+        <v>8.67</v>
       </c>
       <c r="AC7" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1308,22 +1416,25 @@
       <c r="AG7">
         <v>12.0392017364502</v>
       </c>
-      <c r="AH7" t="s">
-        <v>104</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300270</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.36</v>
@@ -1341,7 +1452,7 @@
         <v>9106.709999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1383,10 +1494,25 @@
         <v>0.25</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="Y8">
+        <v>-3.08</v>
+      </c>
+      <c r="Z8">
+        <v>10.67</v>
+      </c>
+      <c r="AA8">
+        <v>-1.02</v>
       </c>
       <c r="AC8" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1394,22 +1520,25 @@
       <c r="AG8">
         <v>0.4761178195476532</v>
       </c>
-      <c r="AH8" t="s">
-        <v>104</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.44</v>
@@ -1427,7 +1556,7 @@
         <v>340510.62</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9">
         <v>19</v>
@@ -1469,10 +1598,25 @@
         <v>0.06</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="Y9">
+        <v>-1.83</v>
+      </c>
+      <c r="Z9">
+        <v>167.69</v>
+      </c>
+      <c r="AA9">
+        <v>1.94</v>
       </c>
       <c r="AC9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1480,22 +1624,25 @@
       <c r="AG9">
         <v>2.206074714660645</v>
       </c>
-      <c r="AH9" t="s">
-        <v>104</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300432</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.9</v>
@@ -1513,7 +1660,7 @@
         <v>41922.78</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1555,10 +1702,25 @@
         <v>0.1</v>
       </c>
       <c r="X10" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Y10">
+        <v>19.98</v>
+      </c>
+      <c r="Z10">
+        <v>22.22</v>
+      </c>
+      <c r="AA10">
+        <v>25.61</v>
       </c>
       <c r="AC10" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1566,22 +1728,25 @@
       <c r="AG10">
         <v>5.238211631774902</v>
       </c>
-      <c r="AH10" t="s">
-        <v>104</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300450</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.61</v>
@@ -1599,7 +1764,7 @@
         <v>239980.29</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11">
         <v>22</v>
@@ -1641,10 +1806,25 @@
         <v>-0.13</v>
       </c>
       <c r="X11" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Y11">
+        <v>-1.46</v>
+      </c>
+      <c r="Z11">
+        <v>64.87</v>
+      </c>
+      <c r="AA11">
+        <v>-3.47</v>
       </c>
       <c r="AC11" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1652,22 +1832,25 @@
       <c r="AG11">
         <v>15.22112560272217</v>
       </c>
-      <c r="AH11" t="s">
-        <v>104</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300457</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>8.460000000000001</v>
@@ -1685,7 +1868,7 @@
         <v>71151.2</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <v>20</v>
@@ -1727,10 +1910,25 @@
         <v>0.17</v>
       </c>
       <c r="X12" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Y12">
+        <v>-2.63</v>
+      </c>
+      <c r="Z12">
+        <v>36.94</v>
+      </c>
+      <c r="AA12">
+        <v>-5.86</v>
       </c>
       <c r="AC12" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1738,22 +1936,25 @@
       <c r="AG12">
         <v>-3.688453674316406</v>
       </c>
-      <c r="AH12" t="s">
-        <v>104</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300475</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>5.96</v>
@@ -1771,7 +1972,7 @@
         <v>87892.92999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13">
         <v>17</v>
@@ -1813,10 +2014,25 @@
         <v>-0.02</v>
       </c>
       <c r="X13" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y13">
+        <v>8.31</v>
+      </c>
+      <c r="Z13">
+        <v>95</v>
+      </c>
+      <c r="AA13">
+        <v>15.17</v>
       </c>
       <c r="AC13" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1824,22 +2040,25 @@
       <c r="AG13">
         <v>7.941421031951904</v>
       </c>
-      <c r="AH13" t="s">
-        <v>104</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300490</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.91</v>
@@ -1857,7 +2076,7 @@
         <v>22838.46</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1899,10 +2118,25 @@
         <v>0.08</v>
       </c>
       <c r="X14" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Y14">
+        <v>2.99</v>
+      </c>
+      <c r="Z14">
+        <v>13.98</v>
+      </c>
+      <c r="AA14">
+        <v>13.47</v>
       </c>
       <c r="AC14" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1910,22 +2144,25 @@
       <c r="AG14">
         <v>97.03456115722656</v>
       </c>
-      <c r="AH14" t="s">
-        <v>104</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300502</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>4.47</v>
@@ -1943,7 +2180,7 @@
         <v>426670.62</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1985,10 +2222,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Y15">
+        <v>-5.8</v>
+      </c>
+      <c r="Z15">
+        <v>395</v>
+      </c>
+      <c r="AA15">
+        <v>1.1</v>
       </c>
       <c r="AC15" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1996,22 +2248,25 @@
       <c r="AG15">
         <v>2.94014048576355</v>
       </c>
-      <c r="AH15" t="s">
-        <v>104</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300604</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.96</v>
@@ -2029,7 +2284,7 @@
         <v>186701.53</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16">
         <v>24</v>
@@ -2071,10 +2326,25 @@
         <v>0.09</v>
       </c>
       <c r="X16" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y16">
+        <v>-4.32</v>
+      </c>
+      <c r="Z16">
+        <v>107.66</v>
+      </c>
+      <c r="AA16">
+        <v>10.45</v>
       </c>
       <c r="AC16" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2082,22 +2352,25 @@
       <c r="AG16">
         <v>1.53043520450592</v>
       </c>
-      <c r="AH16" t="s">
-        <v>104</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300650</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1.27</v>
@@ -2115,7 +2388,7 @@
         <v>14669.08</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2157,10 +2430,25 @@
         <v>0.12</v>
       </c>
       <c r="X17" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y17">
+        <v>0.98</v>
+      </c>
+      <c r="Z17">
+        <v>22.5</v>
+      </c>
+      <c r="AA17">
+        <v>8.17</v>
       </c>
       <c r="AC17" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2168,22 +2456,25 @@
       <c r="AG17">
         <v>4.729432106018066</v>
       </c>
-      <c r="AH17" t="s">
-        <v>104</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300666</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.58</v>
@@ -2201,7 +2492,7 @@
         <v>104822.98</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2243,10 +2534,25 @@
         <v>0.04</v>
       </c>
       <c r="X18" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y18">
+        <v>-4.86</v>
+      </c>
+      <c r="Z18">
+        <v>107.46</v>
+      </c>
+      <c r="AA18">
+        <v>0.71</v>
       </c>
       <c r="AC18" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2254,22 +2560,25 @@
       <c r="AG18">
         <v>4.777083873748779</v>
       </c>
-      <c r="AH18" t="s">
-        <v>104</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300959</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.21</v>
@@ -2287,7 +2596,7 @@
         <v>20752.47</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2329,10 +2638,25 @@
         <v>0.12</v>
       </c>
       <c r="X19" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Y19">
+        <v>15.08</v>
+      </c>
+      <c r="Z19">
+        <v>98.88</v>
+      </c>
+      <c r="AA19">
+        <v>23.83</v>
       </c>
       <c r="AC19" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2340,22 +2664,25 @@
       <c r="AG19">
         <v>4.85785436630249</v>
       </c>
-      <c r="AH19" t="s">
-        <v>104</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>301013</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.68</v>
@@ -2373,7 +2700,7 @@
         <v>44043.87</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2415,10 +2742,25 @@
         <v>0.08</v>
       </c>
       <c r="X20" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y20">
+        <v>-5.37</v>
+      </c>
+      <c r="Z20">
+        <v>33.08</v>
+      </c>
+      <c r="AA20">
+        <v>11.68</v>
       </c>
       <c r="AC20" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2426,22 +2768,25 @@
       <c r="AG20">
         <v>3.597521066665649</v>
       </c>
-      <c r="AH20" t="s">
-        <v>104</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>301308</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>3.33</v>
@@ -2459,7 +2804,7 @@
         <v>60304.6</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2501,10 +2846,25 @@
         <v>0.03</v>
       </c>
       <c r="X21" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>178.03</v>
+      </c>
+      <c r="AA21">
+        <v>22.19</v>
       </c>
       <c r="AC21" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2512,22 +2872,25 @@
       <c r="AG21">
         <v>-2.226880788803101</v>
       </c>
-      <c r="AH21" t="s">
-        <v>104</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>301421</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.8</v>
@@ -2545,7 +2908,7 @@
         <v>27656.52</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2587,10 +2950,25 @@
         <v>0.31</v>
       </c>
       <c r="X22" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Y22">
+        <v>7.88</v>
+      </c>
+      <c r="Z22">
+        <v>132.28</v>
+      </c>
+      <c r="AA22">
+        <v>12.25</v>
       </c>
       <c r="AC22" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2598,22 +2976,25 @@
       <c r="AG22">
         <v>0.9700144529342651</v>
       </c>
-      <c r="AH22" t="s">
-        <v>104</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>688123</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.63</v>
@@ -2631,7 +3012,7 @@
         <v>49235.76</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2673,10 +3054,25 @@
         <v>-0.04</v>
       </c>
       <c r="X23" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y23">
+        <v>10.47</v>
+      </c>
+      <c r="Z23">
+        <v>167.95</v>
+      </c>
+      <c r="AA23">
+        <v>17.48</v>
       </c>
       <c r="AC23" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2684,22 +3080,25 @@
       <c r="AG23">
         <v>7.938947677612305</v>
       </c>
-      <c r="AH23" t="s">
-        <v>104</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>688141</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.29</v>
@@ -2717,7 +3116,7 @@
         <v>7945.09</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24">
         <v>19</v>
@@ -2759,10 +3158,25 @@
         <v>0.03</v>
       </c>
       <c r="X24" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y24">
+        <v>0.17</v>
+      </c>
+      <c r="Z24">
+        <v>59.99</v>
+      </c>
+      <c r="AA24">
+        <v>4.84</v>
       </c>
       <c r="AC24" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2770,22 +3184,25 @@
       <c r="AG24">
         <v>4.928604602813721</v>
       </c>
-      <c r="AH24" t="s">
-        <v>104</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>688147</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.19</v>
@@ -2803,7 +3220,7 @@
         <v>10445.62</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25">
         <v>31</v>
@@ -2845,10 +3262,25 @@
         <v>0.21</v>
       </c>
       <c r="X25" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y25">
+        <v>4.25</v>
+      </c>
+      <c r="Z25">
+        <v>60.5</v>
+      </c>
+      <c r="AA25">
+        <v>12.66</v>
       </c>
       <c r="AC25" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2856,22 +3288,25 @@
       <c r="AG25">
         <v>6.124907970428467</v>
       </c>
-      <c r="AH25" t="s">
-        <v>104</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>688233</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.88</v>
@@ -2889,7 +3324,7 @@
         <v>13075.3</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2931,10 +3366,25 @@
         <v>0.01</v>
       </c>
       <c r="X26" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y26">
+        <v>12.32</v>
+      </c>
+      <c r="Z26">
+        <v>52.86</v>
+      </c>
+      <c r="AA26">
+        <v>14.54</v>
       </c>
       <c r="AC26" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2942,22 +3392,25 @@
       <c r="AG26">
         <v>3.921643733978271</v>
       </c>
-      <c r="AH26" t="s">
-        <v>104</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>688249</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2975,7 +3428,7 @@
         <v>89147.8</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3017,10 +3470,25 @@
         <v>-0.27</v>
       </c>
       <c r="X27" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y27">
+        <v>3.5</v>
+      </c>
+      <c r="Z27">
+        <v>35.56</v>
+      </c>
+      <c r="AA27">
+        <v>7.01</v>
       </c>
       <c r="AC27" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3028,22 +3496,25 @@
       <c r="AG27">
         <v>12.14102077484131</v>
       </c>
-      <c r="AH27" t="s">
-        <v>104</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688332</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>10.25</v>
@@ -3061,7 +3532,7 @@
         <v>62473.8</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3103,10 +3574,25 @@
         <v>-0.05</v>
       </c>
       <c r="X28" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y28">
+        <v>6.38</v>
+      </c>
+      <c r="Z28">
+        <v>168.88</v>
+      </c>
+      <c r="AA28">
+        <v>7.8</v>
       </c>
       <c r="AC28" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3114,22 +3600,25 @@
       <c r="AG28">
         <v>1.330208659172058</v>
       </c>
-      <c r="AH28" t="s">
-        <v>104</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688347</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1.49</v>
@@ -3147,7 +3636,7 @@
         <v>60596.84</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29">
         <v>13</v>
@@ -3189,10 +3678,25 @@
         <v>-0.14</v>
       </c>
       <c r="X29" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y29">
+        <v>15.72</v>
+      </c>
+      <c r="Z29">
+        <v>117.89</v>
+      </c>
+      <c r="AA29">
+        <v>24.96</v>
       </c>
       <c r="AC29" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3200,22 +3704,25 @@
       <c r="AG29">
         <v>3.193722486495972</v>
       </c>
-      <c r="AH29" t="s">
-        <v>104</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688403</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.27</v>
@@ -3233,7 +3740,7 @@
         <v>22738.76</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3275,10 +3782,25 @@
         <v>0.13</v>
       </c>
       <c r="X30" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y30">
+        <v>2.54</v>
+      </c>
+      <c r="Z30">
+        <v>19.86</v>
+      </c>
+      <c r="AA30">
+        <v>3.65</v>
       </c>
       <c r="AC30" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3286,22 +3808,25 @@
       <c r="AG30">
         <v>5.898121356964111</v>
       </c>
-      <c r="AH30" t="s">
-        <v>104</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688409</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.38</v>
@@ -3319,7 +3844,7 @@
         <v>8797.120000000001</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3360,8 +3885,23 @@
       <c r="W31">
         <v>-0.01</v>
       </c>
+      <c r="Y31">
+        <v>2.1</v>
+      </c>
+      <c r="Z31">
+        <v>76.89</v>
+      </c>
+      <c r="AA31">
+        <v>6.72</v>
+      </c>
       <c r="AC31" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3369,22 +3909,25 @@
       <c r="AG31">
         <v>2.782780170440674</v>
       </c>
-      <c r="AH31" t="s">
-        <v>104</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688411</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>14.98</v>
@@ -3402,7 +3945,7 @@
         <v>45637.55</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32">
         <v>20</v>
@@ -3444,10 +3987,25 @@
         <v>0.33</v>
       </c>
       <c r="X32" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Y32">
+        <v>5.46</v>
+      </c>
+      <c r="Z32">
+        <v>345.55</v>
+      </c>
+      <c r="AA32">
+        <v>12.55</v>
       </c>
       <c r="AC32" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3455,22 +4013,25 @@
       <c r="AG32">
         <v>2.851907968521118</v>
       </c>
-      <c r="AH32" t="s">
-        <v>104</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688503</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.06</v>
@@ -3488,7 +4049,7 @@
         <v>58041.6</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3530,10 +4091,25 @@
         <v>-0.28</v>
       </c>
       <c r="X33" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Y33">
+        <v>-1.28</v>
+      </c>
+      <c r="Z33">
+        <v>84.81</v>
+      </c>
+      <c r="AA33">
+        <v>5.71</v>
       </c>
       <c r="AC33" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3541,22 +4117,25 @@
       <c r="AG33">
         <v>2.700414657592773</v>
       </c>
-      <c r="AH33" t="s">
-        <v>104</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688525</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>4.82</v>
@@ -3574,7 +4153,7 @@
         <v>84820.02</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3616,10 +4195,25 @@
         <v>0.13</v>
       </c>
       <c r="X34" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y34">
+        <v>9.34</v>
+      </c>
+      <c r="Z34">
+        <v>109.5</v>
+      </c>
+      <c r="AA34">
+        <v>15.92</v>
       </c>
       <c r="AC34" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3627,22 +4221,25 @@
       <c r="AG34">
         <v>4.09652042388916</v>
       </c>
-      <c r="AH34" t="s">
-        <v>104</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688545</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.9</v>
@@ -3660,7 +4257,7 @@
         <v>12882.67</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3702,10 +4299,25 @@
         <v>0.16</v>
       </c>
       <c r="X35" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y35">
+        <v>9.5</v>
+      </c>
+      <c r="Z35">
+        <v>43.09</v>
+      </c>
+      <c r="AA35">
+        <v>9.279999999999999</v>
       </c>
       <c r="AC35" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3713,22 +4325,25 @@
       <c r="AG35">
         <v>-0.5667862296104431</v>
       </c>
-      <c r="AH35" t="s">
-        <v>104</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688627</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>6.93</v>
@@ -3746,7 +4361,7 @@
         <v>28402.83</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36">
         <v>12</v>
@@ -3788,10 +4403,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X36" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y36">
+        <v>-3.21</v>
+      </c>
+      <c r="Z36">
+        <v>193.99</v>
+      </c>
+      <c r="AA36">
+        <v>4.86</v>
       </c>
       <c r="AC36" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3799,22 +4429,25 @@
       <c r="AG36">
         <v>3.233724355697632</v>
       </c>
-      <c r="AH36" t="s">
-        <v>104</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688652</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.39</v>
@@ -3832,7 +4465,7 @@
         <v>15068.94</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3874,10 +4507,25 @@
         <v>-0.04</v>
       </c>
       <c r="X37" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Y37">
+        <v>-6.21</v>
+      </c>
+      <c r="Z37">
+        <v>117.33</v>
+      </c>
+      <c r="AA37">
+        <v>16.4</v>
       </c>
       <c r="AC37" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3885,8 +4533,11 @@
       <c r="AG37">
         <v>3.113996267318726</v>
       </c>
-      <c r="AH37" t="s">
-        <v>104</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
